--- a/testing/results_new_dataset/LLAMA_7B/new shit/PF_ENUM.RARR_Llama_7B.xlsx
+++ b/testing/results_new_dataset/LLAMA_7B/new shit/PF_ENUM.RARR_Llama_7B.xlsx
@@ -1163,16 +1163,16 @@
     <t>[('What does "go wobbly" mean in this context?', [('Wait a moment and try again.Something went wrong.', 'https://www.quora.com/What-does-a-British-person-mean-when-they-use-the-term-wobbly'), ('Learn new vocabulary by reading whatever you like\nAfter installing Reverso app, double-click words to look them up in articles, documents, emails, PDF…\nResults: 11.Elapsed time: 23 ms.\nWord index: 1-300, 301-600, 601-900Expression index: 1-400, 401-800, 801-1200Phrase index: 1-400, 401-800, 801-1200\nExpression index: 1-400, 401-800, 801-1200Phrase index: 1-400, 401-800, 801-1200\nPhrase index: 1-400, 401-800, 801-1200\nHelping millions of people and large organizations communicate more efficiently and precisely in all languages.Exact: 11.', 'https://context.reverso.net/translation/english-russian/go+wobbly'), ('The discrepancy between what the president said and what his companies had done was too embarrassing to let it continue.That’s because the difference between what an immigrant could earn in his home country and in the United States is massive, and because U.S. employers can save thousands of dollars per employee by hiring illegal immigrants.Follow Henry Olsen Follow\n\nTrump’s concerns about E-Verify contradict what he said on the campaign trail in 2016.', 'https://www.washingtonpost.com/opinions/2019/05/20/dont-go-wobbly-e-verify-mr-president/'), ('“This is no time to go wobbly, George,” she warned him.In another context I called these cicada terms.Wobbly, in the sense that Sarah Palin used this term, refers to a throwaway phrase spoken by Margaret Thatcher.', 'https://theamericanscholar.org/is-there-a-word-for-that/')]), ('Who is the source of the quote, and what is their relation to the statement?', [("The first thing to do when trying to identify a quote is to try to remember as much as possible about the wording of the quote.The Quote Verifier: Who Said What, Where, and When\nedited by Ralph Keyes\nArranged primarily in alphabetical order by quote keywords, with a name and keyword index.Bloomsbury Dictionary of Quotations\nThis work is arranged by author; a keyword index is supplied.Brewer's Famous Quotations\nNigel Rees\nThe Home Book of Proverbs, Maxims, and Familiar Phrases\nBurton E. Stevenson\nThis comprehensive work is arranged by subject with cross references to related headings; a keyword index is provided.", 'https://www.nypl.org/blog/2013/11/22/how-to-research-quotations'), ('See examples of how to quote, paraphrase and summarize this paragraph below:\nExamples using the paragraph above:\nRandler (2009) states that late risers have “a high misalignment of social and biological time” which results in a mismatch between their natural schedules and the normal workday (p. 2793).Examples using the paragraph above:\nRecent research shows that people who are not naturally early risers often have persistent issues adjusting themselves to the morning-oriented schedule of most schools and workplaces, and because of this may be less proactive in their behaviors (Randler, 2009).It is important to remember that you are the author of a paper, so sources are properly used to back up your own arguments, not state an argument in themselves, so how you use them depends on the structure of your paper and your argument.', 'https://fitchburgstate.libguides.com/c.php?g=545285&amp;p=3740472'), ('One of the best ways to accomplish this update and keep educators aware of currents trends and theories in their fields is through professional development.A strong way to integrate source material is to use transitions.Use a direct quotation only if the exact phrasing of the original material is crucial to your point.', 'https://academicguides.waldenu.edu/writingcenter/evidence/quotation'), ('As examples, see:\nSearch online archives and digitized personal papers associated with prominent figures, such as:\nSearch the full text or listen to audio files of famous speeches to find quotations from the original source.Keep in mind, of course, that the person giving the speech may have borrowed language from another source.Narrow the focus of your quotation search by "scoping," or limiting the sources you are searching to a particular type or format.', 'https://guides.loc.gov/quotations/online'), ('The phrases listed here are just some of the ways in which you can alert your reader that you are about to rephrase, clarify, expand, and otherwise analyze the source you have previously introduced.As with the phrases above, some are quite neutral, while others allow you to imply things about the quote’s tone, similarity, contrast, and/or significance in relation to other sources or to your larger argument.Note that while some of these are quite neutral, others allow you to imply things about the quote’s tone, similarity, contrast, and/or significance in relation to other sources or to your larger argument.', 'https://www.brandeis.edu/writing-program/resources/faculty/handouts/phrases-for-introducing-sources-quotations.html')])]</t>
   </si>
   <si>
-    <t>18 percent of our land in our state right now is either federally, state or county owned for conservation purposes.</t>
-  </si>
-  <si>
-    <t>Alberta Darling</t>
-  </si>
-  <si>
-    <t>The claim that 18% of the land in a given state is owned for conservation purposes cannot be verified. The provided information shows varying percentages of land ownership across different states and categories, but none specifically confirm the 18% figure mentioned by Alberta Darling. For instance, one answer mentions that local and state land trusts contributed to 70% of the growth in land protected since 2015, while another notes that over 50% of U.S. forestland is owned and managed by private owners. However, these statistics do not directly support or refute the claim made by Alberta Darling.</t>
-  </si>
-  <si>
-    <t>[('What percentage of land in the state is owned for conservation purposes?', [("Land is the answer.Local and state land trusts contributed to 70% of the growth in land protected since 2015.Source: 2020 National Land Trust Census\nSource: Trust for Public Land's Conservation Almanac\nSource: NRCS - Natural Resources Inventory\n\n          This information reflects data collected in the National Land Trust\n          Census, the longest-running comprehensive survey of private land\n          conservation in America.", 'https://landtrustalliance.org/land-trusts/gaining-ground/united-states'), ('This land is not included in either the "Total Area Owned by State and Federal Gov\'ts" and "Owned by Federal Gov\'t" columns.This land is now privately owned by the Native Corporations.7 The Federal and State acreages for the State of Alaska are given as they will be when  all lands due to the State and to the N ative \nCorporations as per the terms of the Alaska Statehood, Alaska  Native Claims Settlement and Alaska National Interest Lands \nConservation Acts are conveyed.', 'https://www.nrcm.org/documents/publiclandownership.pdf'), ('Most of this land is family and individually owned and the average parcel size is smaller than 25 acres.Federal and state agencies manage public lands for a multitude of uses, including conservation, production, and recreation.Over 50% of U.S. forestland is owned and managed by more than 10 million private owners.', 'https://www.stateforesters.org/timber-assurance/legality/forest-ownership-statistics/'), ('The amount and percentage of federally  owned land in each state vary  widely, ranging from 0.3% \nof land (in Connecticut and Iowa) to 80.1% of land (in Nevada).Table 1 also id entifies the total acreage of each state and the percentage of land in each \nstate administered by the five federal land agencies.Thus, the percentage shown overest imates the area that is federally owned.', 'https://sgp.fas.org/crs/misc/R42346.pdf')]), ('Who made this statement about land ownership?', [('But basically, national public-land-use policy made land ownership financially unattainable for most would-be homesteaders.This meant that the homestead was their primary residence and that they made improvements upon the land.Today, the monument is administered by the National Park Service, and the site commemorates the changes to the land and the nation brought about by the Homestead Act of 1862.', 'https://www.archives.gov/education/lessons/homestead-act'), ('The opportunity to come and live off the land and in vast amounts was a tremendous attraction and a great value to the people who came here.The land here was ample, and it was available in fee simple, the type of land entitlement that gave the colonists complete and full ownership of the property, unlike what they could have had in England where all the fee simple title was in the crown and they would at best live at the sufferance of the king and, later, parliament.He made that point in a 1792 essay published by the National Gazette:\nThe Founders also believed that liberty and property were “inextricably related” and equally valuable.REF Property was “the guardian of every other right,” and protection of property was “critical to the enjoyment of individual liberty”REF and “central to the new American social and political order.”REF Professor Gordon Wood, perhaps the dean of early American legal history, has put it this way:\nAs one scholar has noted, “Anyone who studies the revolution must notice at once the attachment of all articulate Americans to property.', 'https://www.heritage.org/economic-and-property-rights/report/the-framers-understanding-property'), ('More Featured Documents\n\n This page was last reviewed on November 27, 2023.Through 1986, when the last claim was made in Alaska, the Homestead Act distributed 270 million acres of land in the United States making it arguably one of the most far-reaching pieces of legislation in American history.After a few minor changes in conference committee—which both houses agreed to without controversy—Congress sent the final legislation to President Abraham Lincoln who signed the act into law on May 20, 1862.', 'https://www.archives.gov/legislative/features/homestead-act'), ('From then on, property and land ownership became an important part of Washington’s life.His job was literally to survey and map the Virginia countryside for future land ownership and development.Despite all this, no discussion of Washington and property would be complete without recognizing the despicable stain on his estimable reputation: his ownership of human slaves.', 'https://pacificlegal.org/the-founding-fathers-of-our-limited-government-george-washington-and-the-importance-of-property-rights/'), ('The Dawes Act of 1887 sought to assimilate Native Americans by, among other things, transforming their traditional uses and attitudes about land and land ownership to more mainstream American values of private ownership and settled farming.Â\xa0We cannot sell the lives of men and animals; therefore we cannot sell this land.Â\xa0We cannot sell the lives of men and animals; therefore we cannot sell this land.', 'https://shec.ashp.cuny.edu/items/show/1543')])]</t>
+    <t>Perry pushed for a law that lets insurance companies raise homeowners’ rates without having to justify the increase.</t>
+  </si>
+  <si>
+    <t>Back to Basics</t>
+  </si>
+  <si>
+    <t>The provided question-answer pairs do not contain any information about a specific law related to insurance companies raising homeowners' rates without justification. The answers cover various topics such as religious denominations, laws and regulations, education policies, and court proceedings, but none of them mention the claim made by Back to Basics regarding Perry's actions on insurance rate increases. Therefore, it is not possible to verify or refute the claim based on the given information.</t>
+  </si>
+  <si>
+    <t>[('What does "Back to Basics" say about the law?', [('What LCMS is to Lutheranism, the EPC is to Presbyterians.This article alone is enough to make me go back to the LCMS church.', 'https://witness.lcms.org/2014/back-to-basics-law-and-gospel/'), ('Back to Basics-Christ and the Law\nFrank Jamerson\nWhen brethren are confused about whether Christ came to fulfill the law and prophets or to perpetuate them, it is time to get back to basics!"What purpose then does the law serve?', 'https://www.truthmagazine.com/archives/volume41/GOT041208a.html'), ('And that, it appears, is precisely what the Department of Education is about.It seems inevitable, therefore, that the recent encumberment of rulemaking will produce a renaissance of the previously favored mode of making law and policy—a movement back to basics, to adjudication.', 'https://www.aei.org/articles/back-to-basics-making-law-without-making-rules/'), ('Their word is law but it does not apply to them.a vote) does not solve this problem and more often than not the person or group with absolute power will simply default back to autocracy whether by cancelling elections or rigging them.', 'https://theshiftnews.com/2018/09/01/back-to-basics-what-is-the-rule-of-law/'), ("Kathy Hochul signed into legislation her 'Back to Basics' reading plan with the hope that it will improve reading proficiency rates across NYS.", 'https://www.wgrz.com/article/news/local/back-to-basics-reading-plan-proficency-nys-hochul/71-8fcb56aa-51ce-4fe3-aac9-6d6d591bb170')]), ('What specific law is being referred to?', [('If you want to read a law that is currently in force--that is, the amended version of the law--you will want to look at the United States Code.A law may also be referred to as an act (such as the Fair Credit Reporting Act) or as a statute.', 'https://www.senate.gov/legislative/HowTo/how_to_laws.htm'), ("The U.S. Constitution is the nation's fundamental law.Rule of law is a principle under which all persons, institutions, and entities are accountable to laws that are:\n\n\n\tThe courts play an integral role in maintaining the rule of law, particularly when they hear the grievances voiced by minority groups or by those who may hold minority opinions.", 'https://www.uscourts.gov/educational-resources/educational-activities/overview-rule-law'), ('Each piece of legislation is referred to the committee that has jurisdiction over the area affected by the measure.It is during committee action that the most intense consideration is given to the proposed measures; this is also the time when the people are given the opportunity to be heard.', 'http://www.house.gov/the-house-explained/the-legislative-process/introduction-referral'), ('However, the House may grant specific authority to agree to such an amendment by a separate vote on a motion to instruct on each specific amendment.However, the House may grant specific authority to agree to such an amendment by a separate vote on a motion to instruct on each specific amendment.', 'https://www.congress.gov/help/learn-about-the-legislative-process/how-our-laws-are-made'), ('Each allegation is referred to as a count.Often referred to as a TRO.', 'https://www.uscourts.gov/glossary')])]</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3563,10 +3563,10 @@
         <v>382</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>383</v>
